--- a/Code/Results/Cases/Case_4_195/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_195/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.06933762420264</v>
+        <v>22.24854560026249</v>
       </c>
       <c r="C2">
-        <v>12.30501992720977</v>
+        <v>8.108704586118678</v>
       </c>
       <c r="D2">
-        <v>8.950932088453655</v>
+        <v>13.57497534017594</v>
       </c>
       <c r="E2">
-        <v>8.10119971406805</v>
+        <v>13.8832556097768</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.113752722526178</v>
+        <v>3.713878746361673</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.021597253468151</v>
+        <v>8.436695558965017</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.466258571712164</v>
+        <v>12.73779624624096</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.50967130305606</v>
+        <v>32.73553132502259</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.54703240454077</v>
+        <v>21.82572601128805</v>
       </c>
       <c r="C3">
-        <v>11.67600378358245</v>
+        <v>7.792191563136518</v>
       </c>
       <c r="D3">
-        <v>8.793630898640323</v>
+        <v>13.58785991460878</v>
       </c>
       <c r="E3">
-        <v>8.154461881007659</v>
+        <v>13.92413729900321</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.121494954851074</v>
+        <v>3.716744758009138</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.052649626858683</v>
+        <v>8.447732265160848</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.231722840194292</v>
+        <v>12.72328869931621</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.40044570350142</v>
+        <v>32.8468727494686</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.56683154962219</v>
+        <v>21.56548130754456</v>
       </c>
       <c r="C4">
-        <v>11.27283529117591</v>
+        <v>7.590098063782095</v>
       </c>
       <c r="D4">
-        <v>8.701915542746978</v>
+        <v>13.59831687860034</v>
       </c>
       <c r="E4">
-        <v>8.191377367749528</v>
+        <v>13.9511021607638</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.126380095969884</v>
+        <v>3.718597094492405</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.072278452397503</v>
+        <v>8.45486676981751</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.088287865512008</v>
+        <v>12.71616038669058</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.35736036806544</v>
+        <v>32.92335162319041</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.15608049808856</v>
+        <v>21.45940925709928</v>
       </c>
       <c r="C5">
-        <v>11.10437219858081</v>
+        <v>7.505877518332971</v>
       </c>
       <c r="D5">
-        <v>8.66577203239334</v>
+        <v>13.60321806014536</v>
       </c>
       <c r="E5">
-        <v>8.207449458368441</v>
+        <v>13.96255944193575</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.128405129552085</v>
+        <v>3.719375300108258</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.080422667051432</v>
+        <v>8.457864430246151</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.030044574789788</v>
+        <v>12.71370528815604</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.34557455020146</v>
+        <v>32.95655050609444</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.0871973015745</v>
+        <v>21.44179895766273</v>
       </c>
       <c r="C6">
-        <v>11.07615045527484</v>
+        <v>7.491782731729628</v>
       </c>
       <c r="D6">
-        <v>8.659844952047026</v>
+        <v>13.60407053331834</v>
       </c>
       <c r="E6">
-        <v>8.210179490387985</v>
+        <v>13.96449024378046</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.128743491948788</v>
+        <v>3.719505934005481</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.08178389304735</v>
+        <v>8.458367651392219</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.020387803278336</v>
+        <v>12.71332484751771</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.34395847445081</v>
+        <v>32.9621857297922</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.56133760477778</v>
+        <v>21.56405067947683</v>
       </c>
       <c r="C7">
-        <v>11.27058007679704</v>
+        <v>7.58896967197977</v>
       </c>
       <c r="D7">
-        <v>8.701423105893657</v>
+        <v>13.59838038728433</v>
       </c>
       <c r="E7">
-        <v>8.191589995325902</v>
+        <v>13.95125477874536</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.126407265788168</v>
+        <v>3.718607494942537</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.072387694812861</v>
+        <v>8.454906831343614</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.087501448103273</v>
+        <v>12.71612545248586</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.35717839563065</v>
+        <v>32.92379113294889</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.55395189016735</v>
+        <v>22.10297077896798</v>
       </c>
       <c r="C8">
-        <v>12.09170211363759</v>
+        <v>8.001227093736809</v>
       </c>
       <c r="D8">
-        <v>8.895689130400905</v>
+        <v>13.57888945185196</v>
       </c>
       <c r="E8">
-        <v>8.118671367837846</v>
+        <v>13.89696507840411</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.116395760642189</v>
+        <v>3.714847777594849</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.032189739927822</v>
+        <v>8.44042690296021</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.385309340537727</v>
+        <v>12.73242618069929</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.46687997398352</v>
+        <v>32.77223323641574</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09729509115392</v>
+        <v>23.14885806716237</v>
       </c>
       <c r="C9">
-        <v>13.56446516556807</v>
+        <v>8.74498346334263</v>
       </c>
       <c r="D9">
-        <v>9.314893855846348</v>
+        <v>13.56087345282418</v>
       </c>
       <c r="E9">
-        <v>8.010562062349342</v>
+        <v>13.80527314458794</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.09774438311114</v>
+        <v>3.708206022766634</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.957639724645653</v>
+        <v>8.414858545632026</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.971266029907907</v>
+        <v>12.77840129428469</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.88346812262906</v>
+        <v>32.53973817548081</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.53125757138407</v>
+        <v>23.90298536234462</v>
       </c>
       <c r="C10">
-        <v>14.5601583646368</v>
+        <v>9.248416801970839</v>
       </c>
       <c r="D10">
-        <v>9.645699630209116</v>
+        <v>13.55995398585839</v>
       </c>
       <c r="E10">
-        <v>7.954566238134177</v>
+        <v>13.74689100345928</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.084546990043974</v>
+        <v>3.703766877473886</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.905199259661114</v>
+        <v>8.397778211658604</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.399942254724717</v>
+        <v>12.82056208243096</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.32713986799843</v>
+        <v>32.40879981652022</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.61197055566879</v>
+        <v>24.24144816882917</v>
       </c>
       <c r="C11">
-        <v>14.99418463470244</v>
+        <v>9.467514117155149</v>
       </c>
       <c r="D11">
-        <v>9.801060310290302</v>
+        <v>13.5622058571662</v>
       </c>
       <c r="E11">
-        <v>7.934699643523142</v>
+        <v>13.72227806303117</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.078630437657206</v>
+        <v>3.701841968171236</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.881782724913748</v>
+        <v>8.390374150974719</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.594060684390843</v>
+        <v>12.84152423397441</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.56187476595898</v>
+        <v>32.35797721202609</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.01350826574159</v>
+        <v>24.36883736361554</v>
       </c>
       <c r="C12">
-        <v>15.15582078494727</v>
+        <v>9.549014613693023</v>
       </c>
       <c r="D12">
-        <v>9.860587988266218</v>
+        <v>13.56344176766052</v>
       </c>
       <c r="E12">
-        <v>7.928029846245334</v>
+        <v>13.71323724270317</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.076400448740658</v>
+        <v>3.701126558196334</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.872972686014346</v>
+        <v>8.387622738380482</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.667408671348623</v>
+        <v>12.84971480663374</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.65573335927348</v>
+        <v>32.33999567863214</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.92737016875091</v>
+        <v>24.34143830087243</v>
       </c>
       <c r="C13">
-        <v>15.12113038238807</v>
+        <v>9.53152784959126</v>
       </c>
       <c r="D13">
-        <v>9.847736723022008</v>
+        <v>13.5631585653018</v>
       </c>
       <c r="E13">
-        <v>7.929427570984171</v>
+        <v>13.71517191412596</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.076880284979997</v>
+        <v>3.701280034796529</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.874867634975823</v>
+        <v>8.388212980506673</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.651619437652652</v>
+        <v>12.84793964487177</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.63529446407137</v>
+        <v>32.34381200722174</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.64515884695268</v>
+        <v>24.2519448296015</v>
       </c>
       <c r="C14">
-        <v>15.00753700538935</v>
+        <v>9.474248823040565</v>
       </c>
       <c r="D14">
-        <v>9.805943755184115</v>
+        <v>13.56229986215981</v>
       </c>
       <c r="E14">
-        <v>7.934133532814893</v>
+        <v>13.72152866738298</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.078446777378425</v>
+        <v>3.701782840599784</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.881056804427375</v>
+        <v>8.390146743065454</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.600098440692012</v>
+        <v>12.84219303577671</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.56949562353428</v>
+        <v>32.35647249255868</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.47129737639131</v>
+        <v>24.19702259377595</v>
       </c>
       <c r="C15">
-        <v>14.93760377152747</v>
+        <v>9.438971624733536</v>
       </c>
       <c r="D15">
-        <v>9.7804349056285</v>
+        <v>13.561823755291</v>
       </c>
       <c r="E15">
-        <v>7.937128645254337</v>
+        <v>13.72545876485582</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.079407600661149</v>
+        <v>3.702092581045907</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.884855130297764</v>
+        <v>8.391338037376581</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.568518618738763</v>
+        <v>12.83870586114609</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.52984610586277</v>
+        <v>32.36439219660922</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.45954409701159</v>
+        <v>23.88076328095113</v>
       </c>
       <c r="C16">
-        <v>14.53141275144627</v>
+        <v>9.233895086480686</v>
       </c>
       <c r="D16">
-        <v>9.635644026510475</v>
+        <v>13.55986048864248</v>
       </c>
       <c r="E16">
-        <v>7.955981325187913</v>
+        <v>13.74853864779947</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.084935232130269</v>
+        <v>3.703894569606884</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.906737930031924</v>
+        <v>8.398269423785438</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.387235298138236</v>
+        <v>12.81922772103079</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.31248196807196</v>
+        <v>32.41229769250517</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.82498447443081</v>
+        <v>23.68548528596201</v>
       </c>
       <c r="C17">
-        <v>14.27737803370611</v>
+        <v>9.105516207091325</v>
       </c>
       <c r="D17">
-        <v>9.548063431753908</v>
+        <v>13.55933948611367</v>
       </c>
       <c r="E17">
-        <v>7.969015150286348</v>
+        <v>13.76319554022485</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.088347152811278</v>
+        <v>3.705024176537964</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.920270733159128</v>
+        <v>8.402615122045249</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.275770438989873</v>
+        <v>12.80773259664993</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.18773480169318</v>
+        <v>32.44393012621878</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.45485548402926</v>
+        <v>23.57274087408815</v>
       </c>
       <c r="C18">
-        <v>14.12948228130696</v>
+        <v>9.03074464922998</v>
       </c>
       <c r="D18">
-        <v>9.498148408154709</v>
+        <v>13.55929120684372</v>
       </c>
       <c r="E18">
-        <v>7.977036525729184</v>
+        <v>13.77180891652562</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.090317921021192</v>
+        <v>3.705682793922618</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.928096128847953</v>
+        <v>8.405149105887375</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.211576621259516</v>
+        <v>12.80128896686908</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.11906698813075</v>
+        <v>32.46294670894208</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.32869407786333</v>
+        <v>23.53449817329658</v>
       </c>
       <c r="C19">
-        <v>14.07910151626832</v>
+        <v>9.005269659666737</v>
       </c>
       <c r="D19">
-        <v>9.481327092558985</v>
+        <v>13.55931805670645</v>
       </c>
       <c r="E19">
-        <v>7.979841157643411</v>
+        <v>13.77475671422446</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.090986677402074</v>
+        <v>3.705907320867727</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.93075300275053</v>
+        <v>8.406012994807995</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.189828712945067</v>
+        <v>12.79913623938448</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.09633951655227</v>
+        <v>32.46952643972642</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.89306613115026</v>
+        <v>23.70631789946866</v>
       </c>
       <c r="C20">
-        <v>14.30460490117503</v>
+        <v>9.119279072267117</v>
       </c>
       <c r="D20">
-        <v>9.55733907831565</v>
+        <v>13.55936893504511</v>
       </c>
       <c r="E20">
-        <v>7.967573046394351</v>
+        <v>13.7616163381369</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.087983100885771</v>
+        <v>3.704903007650876</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.918825869590342</v>
+        <v>8.402148951213647</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.287644831628224</v>
+        <v>12.80893890483824</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.20069348911533</v>
+        <v>32.44047762936766</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.72825904358534</v>
+        <v>24.27825329506388</v>
       </c>
       <c r="C21">
-        <v>15.04097589013015</v>
+        <v>9.491113167908626</v>
       </c>
       <c r="D21">
-        <v>9.818200495694827</v>
+        <v>13.56254169219447</v>
       </c>
       <c r="E21">
-        <v>7.932727728296221</v>
+        <v>13.7196539489124</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.077986393262563</v>
+        <v>3.701634788245128</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.879237389055558</v>
+        <v>8.389577331630534</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.615235980152715</v>
+        <v>12.8438741278605</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.5886855901027</v>
+        <v>32.35271944710707</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.88283076295178</v>
+        <v>24.64745338456574</v>
       </c>
       <c r="C22">
-        <v>15.50639093425151</v>
+        <v>9.725563268323704</v>
       </c>
       <c r="D22">
-        <v>9.992745841348063</v>
+        <v>13.56684819006281</v>
       </c>
       <c r="E22">
-        <v>7.914952084164788</v>
+        <v>13.69385854798161</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.071512975181243</v>
+        <v>3.699577538370885</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.853694940828033</v>
+        <v>8.381666032763395</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.828391343931003</v>
+        <v>12.86817713100626</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.871335503126</v>
+        <v>32.30273419827654</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.27066510622426</v>
+        <v>24.45086206184478</v>
       </c>
       <c r="C23">
-        <v>15.25943656934021</v>
+        <v>9.601228468854845</v>
       </c>
       <c r="D23">
-        <v>9.899217052209258</v>
+        <v>13.56434573700846</v>
       </c>
       <c r="E23">
-        <v>7.923965508250632</v>
+        <v>13.70747700193255</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.074963191124127</v>
+        <v>3.700668352993447</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.867299194007043</v>
+        <v>8.385860623769888</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.714721346655324</v>
+        <v>12.85507287064633</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.71774193605261</v>
+        <v>32.32873576947995</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.86230297123704</v>
+        <v>23.69690094992506</v>
       </c>
       <c r="C24">
-        <v>14.29230138978233</v>
+        <v>9.113059883068114</v>
       </c>
       <c r="D24">
-        <v>9.553144199304535</v>
+        <v>13.55935483850576</v>
       </c>
       <c r="E24">
-        <v>7.968223380308487</v>
+        <v>13.76232971309652</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.088147659924464</v>
+        <v>3.704957759467206</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.919478951166206</v>
+        <v>8.402359596180276</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.282276762450035</v>
+        <v>12.80839301845046</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.19482538139719</v>
+        <v>32.44203591608379</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.17797561474739</v>
+        <v>22.86789500993197</v>
       </c>
       <c r="C25">
-        <v>13.18109034391551</v>
+        <v>8.5511045113445</v>
       </c>
       <c r="D25">
-        <v>9.197445245610083</v>
+        <v>13.56358338223451</v>
       </c>
       <c r="E25">
-        <v>8.035859543978868</v>
+        <v>13.82849913119362</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.102694131373335</v>
+        <v>3.709925060508782</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.977376920100366</v>
+        <v>8.421474763381678</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.812875300341096</v>
+        <v>12.76447935898421</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.74764650060466</v>
+        <v>32.5956614732964</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_195/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_195/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.24854560026249</v>
+        <v>24.06933762420263</v>
       </c>
       <c r="C2">
-        <v>8.108704586118678</v>
+        <v>12.30501992720966</v>
       </c>
       <c r="D2">
-        <v>13.57497534017594</v>
+        <v>8.950932088453573</v>
       </c>
       <c r="E2">
-        <v>13.8832556097768</v>
+        <v>8.101199714067937</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.713878746361673</v>
+        <v>2.113752722526047</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.436695558965017</v>
+        <v>5.021597253468117</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.73779624624096</v>
+        <v>8.466258571712133</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>32.73553132502259</v>
+        <v>21.50967130305608</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.82572601128805</v>
+        <v>22.54703240454073</v>
       </c>
       <c r="C3">
-        <v>7.792191563136518</v>
+        <v>11.67600378358271</v>
       </c>
       <c r="D3">
-        <v>13.58785991460878</v>
+        <v>8.793630898640364</v>
       </c>
       <c r="E3">
-        <v>13.92413729900321</v>
+        <v>8.154461881007599</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.716744758009138</v>
+        <v>2.12149495485134</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.447732265160848</v>
+        <v>5.052649626858649</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.72328869931621</v>
+        <v>8.231722840194285</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>32.8468727494686</v>
+        <v>21.40044570350119</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.56548130754456</v>
+        <v>21.56683154962219</v>
       </c>
       <c r="C4">
-        <v>7.590098063782095</v>
+        <v>11.27283529117568</v>
       </c>
       <c r="D4">
-        <v>13.59831687860034</v>
+        <v>8.701915542747017</v>
       </c>
       <c r="E4">
-        <v>13.9511021607638</v>
+        <v>8.191377367749453</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.718597094492405</v>
+        <v>2.126380095969881</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.45486676981751</v>
+        <v>5.072278452397469</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.71616038669058</v>
+        <v>8.088287865512033</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>32.92335162319041</v>
+        <v>21.3573603680655</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.45940925709928</v>
+        <v>21.15608049808859</v>
       </c>
       <c r="C5">
-        <v>7.505877518332971</v>
+        <v>11.10437219858076</v>
       </c>
       <c r="D5">
-        <v>13.60321806014536</v>
+        <v>8.665772032393388</v>
       </c>
       <c r="E5">
-        <v>13.96255944193575</v>
+        <v>8.207449458368371</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.719375300108258</v>
+        <v>2.128405129552084</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.457864430246151</v>
+        <v>5.080422667051432</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.71370528815604</v>
+        <v>8.030044574789814</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>32.95655050609444</v>
+        <v>21.34557455020185</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.44179895766273</v>
+        <v>21.0871973015745</v>
       </c>
       <c r="C6">
-        <v>7.491782731729628</v>
+        <v>11.07615045527511</v>
       </c>
       <c r="D6">
-        <v>13.60407053331834</v>
+        <v>8.659844952047235</v>
       </c>
       <c r="E6">
-        <v>13.96449024378046</v>
+        <v>8.210179490388049</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.719505934005481</v>
+        <v>2.128743491948923</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.458367651392219</v>
+        <v>5.081783893047283</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.71332484751771</v>
+        <v>8.020387803278327</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>32.9621857297922</v>
+        <v>21.34395847445081</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.56405067947683</v>
+        <v>21.56133760477776</v>
       </c>
       <c r="C7">
-        <v>7.58896967197977</v>
+        <v>11.27058007679686</v>
       </c>
       <c r="D7">
-        <v>13.59838038728433</v>
+        <v>8.701423105893479</v>
       </c>
       <c r="E7">
-        <v>13.95125477874536</v>
+        <v>8.19158999532579</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.718607494942537</v>
+        <v>2.126407265788034</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.454906831343614</v>
+        <v>5.072387694812861</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.71612545248586</v>
+        <v>8.087501448103239</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>32.92379113294889</v>
+        <v>21.35717839563061</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.10297077896798</v>
+        <v>23.55395189016735</v>
       </c>
       <c r="C8">
-        <v>8.001227093736809</v>
+        <v>12.09170211363746</v>
       </c>
       <c r="D8">
-        <v>13.57888945185196</v>
+        <v>8.895689130400898</v>
       </c>
       <c r="E8">
-        <v>13.89696507840411</v>
+        <v>8.118671367837669</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.714847777594849</v>
+        <v>2.116395760642054</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.44042690296021</v>
+        <v>5.032189739927788</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.73242618069929</v>
+        <v>8.385309340537704</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>32.77223323641574</v>
+        <v>21.46687997398339</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.14885806716237</v>
+        <v>27.09729509115392</v>
       </c>
       <c r="C9">
-        <v>8.74498346334263</v>
+        <v>13.56446516556807</v>
       </c>
       <c r="D9">
-        <v>13.56087345282418</v>
+        <v>9.314893855846353</v>
       </c>
       <c r="E9">
-        <v>13.80527314458794</v>
+        <v>8.010562062349274</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.708206022766634</v>
+        <v>2.097744383111138</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.414858545632026</v>
+        <v>4.957639724645685</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.77840129428469</v>
+        <v>8.971266029907911</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.53973817548081</v>
+        <v>21.88346812262923</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.90298536234462</v>
+        <v>29.53125757138406</v>
       </c>
       <c r="C10">
-        <v>9.248416801970839</v>
+        <v>14.56015836463681</v>
       </c>
       <c r="D10">
-        <v>13.55995398585839</v>
+        <v>9.645699630209199</v>
       </c>
       <c r="E10">
-        <v>13.74689100345928</v>
+        <v>7.954566238134173</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.703766877473886</v>
+        <v>2.084546990043842</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.397778211658604</v>
+        <v>4.905199259660946</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.82056208243096</v>
+        <v>9.399942254724721</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>32.40879981652022</v>
+        <v>22.32713986799845</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.24144816882917</v>
+        <v>30.61197055566878</v>
       </c>
       <c r="C11">
-        <v>9.467514117155149</v>
+        <v>14.99418463470242</v>
       </c>
       <c r="D11">
-        <v>13.5622058571662</v>
+        <v>9.801060310290284</v>
       </c>
       <c r="E11">
-        <v>13.72227806303117</v>
+        <v>7.9346996435232</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.701841968171236</v>
+        <v>2.078630437657071</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.390374150974719</v>
+        <v>4.881782724913916</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.84152423397441</v>
+        <v>9.594060684390874</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>32.35797721202609</v>
+        <v>22.56187476595915</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.36883736361554</v>
+        <v>31.01350826574156</v>
       </c>
       <c r="C12">
-        <v>9.549014613693023</v>
+        <v>15.15582078494711</v>
       </c>
       <c r="D12">
-        <v>13.56344176766052</v>
+        <v>9.860587988266234</v>
       </c>
       <c r="E12">
-        <v>13.71323724270317</v>
+        <v>7.928029846245338</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.701126558196334</v>
+        <v>2.076400448740793</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.387622738380482</v>
+        <v>4.872972686014312</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.84971480663374</v>
+        <v>9.667408671348667</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>32.33999567863214</v>
+        <v>22.65573335927363</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.34143830087243</v>
+        <v>30.92737016875092</v>
       </c>
       <c r="C13">
-        <v>9.53152784959126</v>
+        <v>15.12113038238816</v>
       </c>
       <c r="D13">
-        <v>13.5631585653018</v>
+        <v>9.847736723021956</v>
       </c>
       <c r="E13">
-        <v>13.71517191412596</v>
+        <v>7.929427570984174</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.701280034796529</v>
+        <v>2.076880284979998</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.388212980506673</v>
+        <v>4.87486763497589</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.84793964487177</v>
+        <v>9.651619437652617</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>32.34381200722174</v>
+        <v>22.6352944640712</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.2519448296015</v>
+        <v>30.6451588469526</v>
       </c>
       <c r="C14">
-        <v>9.474248823040565</v>
+        <v>15.00753700538935</v>
       </c>
       <c r="D14">
-        <v>13.56229986215981</v>
+        <v>9.80594375518419</v>
       </c>
       <c r="E14">
-        <v>13.72152866738298</v>
+        <v>7.934133532814942</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.701782840599784</v>
+        <v>2.078446777378556</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.390146743065454</v>
+        <v>4.881056804427343</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.84219303577671</v>
+        <v>9.60009844069203</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>32.35647249255868</v>
+        <v>22.56949562353446</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.19702259377595</v>
+        <v>30.47129737639134</v>
       </c>
       <c r="C15">
-        <v>9.438971624733536</v>
+        <v>14.93760377152749</v>
       </c>
       <c r="D15">
-        <v>13.561823755291</v>
+        <v>9.780434905628452</v>
       </c>
       <c r="E15">
-        <v>13.72545876485582</v>
+        <v>7.937128645254337</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.702092581045907</v>
+        <v>2.079407600661017</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.391338037376581</v>
+        <v>4.884855130297897</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.83870586114609</v>
+        <v>9.568518618738771</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>32.36439219660922</v>
+        <v>22.52984610586263</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.88076328095113</v>
+        <v>29.45954409701156</v>
       </c>
       <c r="C16">
-        <v>9.233895086480686</v>
+        <v>14.53141275144622</v>
       </c>
       <c r="D16">
-        <v>13.55986048864248</v>
+        <v>9.635644026510466</v>
       </c>
       <c r="E16">
-        <v>13.74853864779947</v>
+        <v>7.955981325187968</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.703894569606884</v>
+        <v>2.08493523213</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.398269423785438</v>
+        <v>4.906737930032024</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.81922772103079</v>
+        <v>9.387235298138251</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>32.41229769250517</v>
+        <v>22.31248196807201</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.68548528596201</v>
+        <v>28.8249844744308</v>
       </c>
       <c r="C17">
-        <v>9.105516207091325</v>
+        <v>14.27737803370601</v>
       </c>
       <c r="D17">
-        <v>13.55933948611367</v>
+        <v>9.548063431753938</v>
       </c>
       <c r="E17">
-        <v>13.76319554022485</v>
+        <v>7.969015150286292</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.705024176537964</v>
+        <v>2.088347152811412</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.402615122045249</v>
+        <v>4.920270733158992</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.80773259664993</v>
+        <v>9.275770438989879</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.44393012621878</v>
+        <v>22.18773480169325</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.57274087408815</v>
+        <v>28.45485548402933</v>
       </c>
       <c r="C18">
-        <v>9.03074464922998</v>
+        <v>14.1294822813069</v>
       </c>
       <c r="D18">
-        <v>13.55929120684372</v>
+        <v>9.498148408154506</v>
       </c>
       <c r="E18">
-        <v>13.77180891652562</v>
+        <v>7.977036525729033</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.705682793922618</v>
+        <v>2.090317921020923</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.405149105887375</v>
+        <v>4.928096128847921</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.80128896686908</v>
+        <v>9.211576621259475</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.46294670894208</v>
+        <v>22.11906698813054</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.53449817329658</v>
+        <v>28.32869407786333</v>
       </c>
       <c r="C19">
-        <v>9.005269659666737</v>
+        <v>14.07910151626803</v>
       </c>
       <c r="D19">
-        <v>13.55931805670645</v>
+        <v>9.481327092558816</v>
       </c>
       <c r="E19">
-        <v>13.77475671422446</v>
+        <v>7.979841157643293</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.705907320867727</v>
+        <v>2.09098667740181</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.406012994807995</v>
+        <v>4.93075300275053</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.79913623938448</v>
+        <v>9.189828712945012</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.46952643972642</v>
+        <v>22.09633951655224</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.70631789946866</v>
+        <v>28.89306613115029</v>
       </c>
       <c r="C20">
-        <v>9.119279072267117</v>
+        <v>14.30460490117506</v>
       </c>
       <c r="D20">
-        <v>13.55936893504511</v>
+        <v>9.557339078315685</v>
       </c>
       <c r="E20">
-        <v>13.7616163381369</v>
+        <v>7.967573046394345</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.704903007650876</v>
+        <v>2.087983100885904</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.402148951213647</v>
+        <v>4.91882586959031</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.80893890483824</v>
+        <v>9.287644831628223</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.44047762936766</v>
+        <v>22.20069348911519</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.27825329506388</v>
+        <v>30.72825904358532</v>
       </c>
       <c r="C21">
-        <v>9.491113167908626</v>
+        <v>15.04097589012997</v>
       </c>
       <c r="D21">
-        <v>13.56254169219447</v>
+        <v>9.818200495694834</v>
       </c>
       <c r="E21">
-        <v>13.7196539489124</v>
+        <v>7.932727728296125</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.701634788245128</v>
+        <v>2.077986393262562</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.389577331630534</v>
+        <v>4.879237389055423</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.8438741278605</v>
+        <v>9.615235980152688</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>32.35271944710707</v>
+        <v>22.58868559010278</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.64745338456574</v>
+        <v>31.88283076295183</v>
       </c>
       <c r="C22">
-        <v>9.725563268323704</v>
+        <v>15.50639093425146</v>
       </c>
       <c r="D22">
-        <v>13.56684819006281</v>
+        <v>9.992745841348009</v>
       </c>
       <c r="E22">
-        <v>13.69385854798161</v>
+        <v>7.914952084164793</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.699577538370885</v>
+        <v>2.071512975181111</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.381666032763395</v>
+        <v>4.853694940828033</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.86817713100626</v>
+        <v>9.828391343931022</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>32.30273419827654</v>
+        <v>22.87133550312596</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.45086206184478</v>
+        <v>31.27066510622426</v>
       </c>
       <c r="C23">
-        <v>9.601228468854845</v>
+        <v>15.25943656934008</v>
       </c>
       <c r="D23">
-        <v>13.56434573700846</v>
+        <v>9.899217052209247</v>
       </c>
       <c r="E23">
-        <v>13.70747700193255</v>
+        <v>7.923965508250591</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.700668352993447</v>
+        <v>2.074963191123996</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.385860623769888</v>
+        <v>4.86729919400701</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.85507287064633</v>
+        <v>9.714721346655368</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>32.32873576947995</v>
+        <v>22.71774193605275</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.69690094992506</v>
+        <v>28.86230297123711</v>
       </c>
       <c r="C24">
-        <v>9.113059883068114</v>
+        <v>14.29230138978209</v>
       </c>
       <c r="D24">
-        <v>13.55935483850576</v>
+        <v>9.55314419930448</v>
       </c>
       <c r="E24">
-        <v>13.76232971309652</v>
+        <v>7.968223380308443</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.704957759467206</v>
+        <v>2.088147659924595</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.402359596180276</v>
+        <v>4.919478951166206</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.80839301845046</v>
+        <v>9.282276762450058</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.44203591608379</v>
+        <v>22.19482538139706</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.86789500993197</v>
+        <v>26.1779756147474</v>
       </c>
       <c r="C25">
-        <v>8.5511045113445</v>
+        <v>13.18109034391557</v>
       </c>
       <c r="D25">
-        <v>13.56358338223451</v>
+        <v>9.197445245609984</v>
       </c>
       <c r="E25">
-        <v>13.82849913119362</v>
+        <v>8.035859543978804</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.709925060508782</v>
+        <v>2.102694131373468</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.421474763381678</v>
+        <v>4.9773769201004</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.76447935898421</v>
+        <v>8.812875300341089</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>32.5956614732964</v>
+        <v>21.74764650060484</v>
       </c>
     </row>
   </sheetData>
